--- a/lib_tc_bak/com.aislend.MiniCart.xlsx
+++ b/lib_tc_bak/com.aislend.MiniCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="195">
   <si>
     <t>Action</t>
   </si>
@@ -388,21 +388,12 @@
     <t xml:space="preserve">verification of Move To Product List succesfully </t>
   </si>
   <si>
-    <t xml:space="preserve">verification of MiniCart succesfully </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddProductfromMiniCart succesfully </t>
-  </si>
-  <si>
     <t>Remove quantity of product</t>
   </si>
   <si>
     <t>RemoveProductfromMiniCart</t>
   </si>
   <si>
-    <t xml:space="preserve">RemoveProductfromMiniCart succesfully </t>
-  </si>
-  <si>
     <t>Delete Product</t>
   </si>
   <si>
@@ -448,15 +439,9 @@
     <t>Randomemailid</t>
   </si>
   <si>
-    <t>text verified: Akash sangal</t>
-  </si>
-  <si>
     <t>Add product successfully</t>
   </si>
   <si>
-    <t>Text Entered successfully: 6000</t>
-  </si>
-  <si>
     <t>Delete All Products</t>
   </si>
   <si>
@@ -469,9 +454,6 @@
     <t>User should able to add product</t>
   </si>
   <si>
-    <t xml:space="preserve">DeleteProductfromMiniCart succesfully </t>
-  </si>
-  <si>
     <t>userchandna5593954@mailinator.com</t>
   </si>
   <si>
@@ -502,10 +484,291 @@
     <t>verify minicart msg</t>
   </si>
   <si>
-    <t>text verified: You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: Randomemailid</t>
+    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyElement: null</t>
+  </si>
+  <si>
+    <t>Click: null</t>
+  </si>
+  <si>
+    <t>SetText: 123456</t>
+  </si>
+  <si>
+    <t>VerifyText: Akash sangal</t>
+  </si>
+  <si>
+    <t>MoveToProductList: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>VerifyNoElement: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: null</t>
+  </si>
+  <si>
+    <t>VerifyMiniCart: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>AddProductfromMiniCart: null</t>
+  </si>
+  <si>
+    <t>RemoveProductfromMiniCart: null</t>
+  </si>
+  <si>
+    <t>DeleteProductfromMiniCart: null</t>
+  </si>
+  <si>
+    <t>DeleteProductfromMiniCart: all</t>
+  </si>
+  <si>
+    <t>VerifyMiniCartMsg: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>VerifyText: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>SetText: userchandna7049580@mailinator.com</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 12 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
+  </si>
+  <si>
+    <t>action set text failed: Randomemailid</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 27 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
+  </si>
+  <si>
+    <t>action set text failed: 123456</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 23 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 20 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 20 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 51b547a09bf804211694a94802a1d480
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 11 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 51b547a09bf804211694a94802a1d480
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 13 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 51b547a09bf804211694a94802a1d480
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 23 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 51b547a09bf804211694a94802a1d480
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>Element not verified</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 51b547a09bf804211694a94802a1d480
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 17 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 51b547a09bf804211694a94802a1d480
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 19 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 51b547a09bf804211694a94802a1d480
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
+  </si>
+  <si>
+    <t>action AddProductfromMiniCart failed: null  null</t>
+  </si>
+  <si>
+    <t>bound must be positive</t>
+  </si>
+  <si>
+    <t>action RemoveProductfromMiniCart failed: null  null</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 22 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: d9b43bc53cf86967166b7f272ed4684c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: d9b43bc53cf86967166b7f272ed4684c
+*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 17 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: d9b43bc53cf86967166b7f272ed4684c
+*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 20 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: d9b43bc53cf86967166b7f272ed4684c
+*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1421,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1206,12 +1469,12 @@
         <v>110</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>113</v>
@@ -1219,17 +1482,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1304,7 +1567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row ht="180" r="2" spans="1:15">
+    <row ht="135" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1583,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1329,7 +1592,7 @@
         <v>35</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>114</v>
@@ -1368,7 +1631,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>114</v>
@@ -1407,7 +1670,7 @@
         <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>114</v>
@@ -1446,7 +1709,7 @@
         <v>46</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>114</v>
@@ -1458,7 +1721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="120" r="6" spans="1:15">
+    <row ht="75" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1478,20 +1741,20 @@
         <v>51</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>114</v>
@@ -1503,7 +1766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="60" r="7" spans="1:15">
+    <row ht="45" r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1532,7 +1795,7 @@
         <v>57</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>114</v>
@@ -1571,7 +1834,7 @@
         <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>114</v>
@@ -1600,7 +1863,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>65</v>
@@ -1612,7 +1875,7 @@
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>114</v>
@@ -1624,7 +1887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="180" r="10" spans="1:15">
+    <row ht="135" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1640,7 +1903,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1649,7 +1912,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>114</v>
@@ -1688,7 +1951,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>114</v>
@@ -1731,7 +1994,7 @@
         <v>35</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>114</v>
@@ -1770,7 +2033,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>114</v>
@@ -1809,7 +2072,7 @@
         <v>35</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>114</v>
@@ -1821,7 +2084,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="105" r="15" spans="1:15">
+    <row ht="90" r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
@@ -1850,7 +2113,7 @@
         <v>35</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>114</v>
@@ -1862,7 +2125,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="16" spans="1:15">
+    <row ht="30" r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>72</v>
       </c>
@@ -1889,7 +2152,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>114</v>
@@ -1928,7 +2191,7 @@
         <v>35</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>114</v>
@@ -1971,7 +2234,7 @@
         <v>35</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>114</v>
@@ -2010,7 +2273,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>114</v>
@@ -2049,7 +2312,7 @@
         <v>35</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>114</v>
@@ -2088,7 +2351,7 @@
         <v>35</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>114</v>
@@ -2127,7 +2390,7 @@
         <v>35</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>114</v>
@@ -2139,7 +2402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="23" spans="1:15">
+    <row ht="105" r="23" spans="1:15">
       <c r="A23" s="4" t="s">
         <v>93</v>
       </c>
@@ -2168,7 +2431,7 @@
         <v>35</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>114</v>
@@ -2180,7 +2443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="24" spans="1:15">
+    <row ht="30" r="24" spans="1:15">
       <c r="A24" s="4" t="s">
         <v>93</v>
       </c>
@@ -2207,7 +2470,7 @@
         <v>35</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>114</v>
@@ -2246,7 +2509,7 @@
         <v>35</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>114</v>
@@ -2285,7 +2548,7 @@
         <v>35</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>114</v>
@@ -2324,7 +2587,7 @@
         <v>35</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>114</v>
@@ -2336,7 +2599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="28" spans="1:15">
+    <row ht="30" r="28" spans="1:15">
       <c r="A28" s="4" t="s">
         <v>98</v>
       </c>
@@ -2363,7 +2626,7 @@
         <v>35</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>114</v>
@@ -2402,7 +2665,7 @@
         <v>35</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>114</v>
@@ -2441,7 +2704,7 @@
         <v>35</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>114</v>
@@ -2453,7 +2716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="60" r="31" spans="1:15">
+    <row ht="45" r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>101</v>
       </c>
@@ -2477,10 +2740,10 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>114</v>
@@ -2519,7 +2782,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>114</v>
@@ -2539,10 +2802,10 @@
         <v>43</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>50</v>
@@ -2556,7 +2819,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>114</v>
@@ -2576,10 +2839,10 @@
         <v>47</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>50</v>
@@ -2593,7 +2856,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>114</v>
@@ -2632,7 +2895,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>114</v>
@@ -2652,10 +2915,10 @@
         <v>27</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>50</v>
@@ -2669,7 +2932,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>114</v>
@@ -2708,7 +2971,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>114</v>
@@ -2728,10 +2991,10 @@
         <v>31</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>50</v>
@@ -2740,16 +3003,16 @@
         <v>96</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>114</v>
@@ -2761,7 +3024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="39" spans="1:15">
+    <row ht="30" r="39" spans="1:15">
       <c r="A39" s="4" t="s">
         <v>109</v>
       </c>
@@ -2788,7 +3051,7 @@
         <v>35</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>114</v>
@@ -2831,7 +3094,7 @@
         <v>35</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>114</v>
@@ -2870,7 +3133,7 @@
         <v>35</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>114</v>
@@ -2909,7 +3172,7 @@
         <v>35</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>114</v>
@@ -2929,10 +3192,10 @@
         <v>43</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>50</v>
@@ -2947,10 +3210,10 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>114</v>
@@ -2970,10 +3233,10 @@
         <v>47</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>50</v>
@@ -2982,16 +3245,16 @@
         <v>96</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>114</v>
@@ -3003,7 +3266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="45" spans="1:15">
+    <row ht="30" r="45" spans="1:15">
       <c r="A45" s="4" t="s">
         <v>110</v>
       </c>
@@ -3030,7 +3293,7 @@
         <v>35</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>114</v>
@@ -3042,15 +3305,15 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="46" spans="1:15">
+    <row ht="30" r="46" spans="1:15">
       <c r="A46" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>28</v>
@@ -3059,17 +3322,17 @@
         <v>29</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>114</v>
@@ -3081,15 +3344,15 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="47" spans="1:15">
+    <row ht="30" r="47" spans="1:15">
       <c r="A47" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>28</v>
@@ -3098,17 +3361,17 @@
         <v>29</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>114</v>
@@ -3120,30 +3383,30 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="60" r="48" spans="1:15">
+    <row r="48" spans="1:15">
       <c r="A48" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>114</v>
@@ -3157,7 +3420,7 @@
     </row>
     <row ht="45" r="49" spans="1:15">
       <c r="A49" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>43</v>
@@ -3172,7 +3435,7 @@
         <v>29</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -3182,7 +3445,7 @@
         <v>40</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>114</v>
@@ -3289,7 +3552,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -3298,7 +3561,7 @@
         <v>35</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>114</v>
@@ -3447,20 +3710,20 @@
         <v>51</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>114</v>
@@ -3622,7 +3885,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>114</v>
@@ -3681,10 +3944,10 @@
         <v>43</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>50</v>
@@ -3699,10 +3962,10 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>114</v>
